--- a/application/static/excel/Log.xlsx
+++ b/application/static/excel/Log.xlsx
@@ -2,11 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,19 +17,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -41,27 +37,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -70,12 +51,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -438,51 +417,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Department</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Line</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Plan</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Version</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>File Name</t>
         </is>
@@ -491,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-12-30</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>09:19:51</t>
+          <t>2021-01-05</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>14:33:11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -524,19 +521,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-12-30_ARM_A_C100-LHD_100_ver1.xlsx</t>
+          <t>2021-01-05_ARM_A_C100-LHD_100_ver1.csv</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-12-30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10:02:05</t>
+          <t>2021-01-05</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>15:56:17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -551,11 +548,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LFD</t>
+          <t>X100</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -564,171 +561,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-12-30_ARM_A_LFD_10_ver1.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020-12-30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11:22:09</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X100</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-12-30_ARM_C_X100_10_ver1.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2020-12-30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>11:22:30</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LFD</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-12-30_ARM_A_LFD_100_ver1.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2020-12-30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>11:24:24</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ASS</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CD6</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-12-30_ASS_A_CD6_100_ver1.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2020-12-30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>13:47:46</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ASS</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>C100 LHD</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-12-30_ASS_D_C100-LHD_100_ver1.xlsx</t>
+          <t>2021-01-05_ARM_A_X100_100_ver1.csv</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>